--- a/biology/Médecine/Carl_Schirren/Carl_Schirren.xlsx
+++ b/biology/Médecine/Carl_Schirren/Carl_Schirren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Gerhard Theodor Schirren (né le 24 juin 1922 à Kiel et mort le 25 avril 2017 à Hambourg) est un médecin allemand. Il fonde l'andrologie en tant que science.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Schirren vient d'une famille de dermatologues : son grand-père et son père sont dermatologues. Carl Schirren fréquente l'école académique de Kiel de 1932 à 1940. Il est enrôlé dans l'armée en 1940 à l'âge de 18 ans. Il est blessé à plusieurs reprises[1].
-Pendant la guerre, Carl Schirren étudie la médecine pendant un semestre à l'Université de Kiel. Après la guerre, il reprend ses études à Kiel et soutient sa thèse en 1951. Le sujet de  sa thèse porte sur l'ouverture du col de l'utérus à la fin de la grossesse. Il travaille à la clinique gynécologique de l'hôpital St. Franziskus de Flensburg avec Felix von Mikulicz-Radecki. En raison de sa blessure de guerre à la main gauche, Carl Schirren abandonne la gynécologie pour la dermatologie. Il termine sa formation à la clinique de dermatologie de l'hôpital universitaire d'Eppendorf. En 1957, il complète sa formation à Hambourg et devient spécialiste des maladies de la peau et des maladies vénériennes. Au printemps 1958, Carl Schirren passe plusieurs semaines à étudier en Grande-Bretagne. Il apprend les méthodes d'examen et les procédures chirurgicales concernant l'infertilité chez les hommes[1].
-De 1960 à 1971, il est médecin principal à la clinique universitaire de dermatologie de Hambourg. Le 12 septembre 1966, il est nommé professeur adjoint à l'Université de Hambourg. Le 21 janvier 1971, il est nommé chef de département et professeur à l'Université de Hambourg. Au cours de sa carrière, Carl Schirren se consacre de plus en plus à l'andrologie. En 1975, il fonde la Société allemande d'andrologie (de). Il en est le premier président[1].  
-Ses activités de médecin, professeur et chercheur font de Carl Schirren le pionnier de l'andrologie[2]. Le 1er mars 1983, Carl Schirren crée le Centre de médecine de la reproduction à l'hôpital universitaire de Hambourg[1]. 
-En 1969, il fonde le magazine andrologia, dont il est le seul rédacteur jusqu'en 1973. En 1974, la revue devient l'organe du Comité international d'andrologie, qu'il supervise jusqu'en 1990 à la tête du comité de rédaction[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Schirren vient d'une famille de dermatologues : son grand-père et son père sont dermatologues. Carl Schirren fréquente l'école académique de Kiel de 1932 à 1940. Il est enrôlé dans l'armée en 1940 à l'âge de 18 ans. Il est blessé à plusieurs reprises.
+Pendant la guerre, Carl Schirren étudie la médecine pendant un semestre à l'Université de Kiel. Après la guerre, il reprend ses études à Kiel et soutient sa thèse en 1951. Le sujet de  sa thèse porte sur l'ouverture du col de l'utérus à la fin de la grossesse. Il travaille à la clinique gynécologique de l'hôpital St. Franziskus de Flensburg avec Felix von Mikulicz-Radecki. En raison de sa blessure de guerre à la main gauche, Carl Schirren abandonne la gynécologie pour la dermatologie. Il termine sa formation à la clinique de dermatologie de l'hôpital universitaire d'Eppendorf. En 1957, il complète sa formation à Hambourg et devient spécialiste des maladies de la peau et des maladies vénériennes. Au printemps 1958, Carl Schirren passe plusieurs semaines à étudier en Grande-Bretagne. Il apprend les méthodes d'examen et les procédures chirurgicales concernant l'infertilité chez les hommes.
+De 1960 à 1971, il est médecin principal à la clinique universitaire de dermatologie de Hambourg. Le 12 septembre 1966, il est nommé professeur adjoint à l'Université de Hambourg. Le 21 janvier 1971, il est nommé chef de département et professeur à l'Université de Hambourg. Au cours de sa carrière, Carl Schirren se consacre de plus en plus à l'andrologie. En 1975, il fonde la Société allemande d'andrologie (de). Il en est le premier président.  
+Ses activités de médecin, professeur et chercheur font de Carl Schirren le pionnier de l'andrologie. Le 1er mars 1983, Carl Schirren crée le Centre de médecine de la reproduction à l'hôpital universitaire de Hambourg. 
+En 1969, il fonde le magazine andrologia, dont il est le seul rédacteur jusqu'en 1973. En 1974, la revue devient l'organe du Comité international d'andrologie, qu'il supervise jusqu'en 1990 à la tête du comité de rédaction. 
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1972-1978 : Membre titulaire de la Commission des médicaments de l'Association médicale allemande
 1970-1975 : Président de la Société allemande pour l'étude de la fertilité et de la stérilité
@@ -578,12 +594,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1961 : Dr. Prix Martini du Dr. Fondation Martini
 1973 : Ordre du Mérite de la République fédérale d'Allemagne
-1997 : Médaille Friedrich von Schiller de l'Université d'Iéna[3]
-2006 : Médaille Paracelse de l'Association médicale allemande[1]</t>
+1997 : Médaille Friedrich von Schiller de l'Université d'Iéna
+2006 : Médaille Paracelse de l'Association médicale allemande</t>
         </is>
       </c>
     </row>
@@ -611,7 +629,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Praktische Andrologie: Diagnostik, klinische Untersuchung, Morphologie der Spermatozoen, Biochemie des Spermaplasmas, Hodenhistologie, Therapie., Berlin, Diesbach Verlag, 1995 (ISBN 3-89303-033-6)
 (de) 100 Jahre Dermatologie in einer Familie vier Generationen Schirren, Kiel, Schmidt et Klaunig, 1996 (ISBN 978-3-88312-144-4)
